--- a/FinalDashboard/all2019ForDashboard.xlsx
+++ b/FinalDashboard/all2019ForDashboard.xlsx
@@ -1611,8 +1611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="F108" sqref="F108"/>
+    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
+      <selection activeCell="E186" sqref="E186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3586,7 +3586,7 @@
         <v>100226</v>
       </c>
       <c r="E116" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -3603,7 +3603,7 @@
         <v>107039</v>
       </c>
       <c r="E117" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -3620,7 +3620,7 @@
         <v>108792</v>
       </c>
       <c r="E118" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -3637,7 +3637,7 @@
         <v>110102</v>
       </c>
       <c r="E119" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -3654,7 +3654,7 @@
         <v>110387</v>
       </c>
       <c r="E120" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -3671,7 +3671,7 @@
         <v>114609</v>
       </c>
       <c r="E121" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -3688,7 +3688,7 @@
         <v>119014</v>
       </c>
       <c r="E122" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -3705,7 +3705,7 @@
         <v>119218</v>
       </c>
       <c r="E123" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -3722,7 +3722,7 @@
         <v>119348</v>
       </c>
       <c r="E124" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -3739,7 +3739,7 @@
         <v>123175</v>
       </c>
       <c r="E125" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -3756,7 +3756,7 @@
         <v>126725</v>
       </c>
       <c r="E126" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -3773,7 +3773,7 @@
         <v>129785</v>
       </c>
       <c r="E127" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -3790,7 +3790,7 @@
         <v>136866</v>
       </c>
       <c r="E128" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -3807,7 +3807,7 @@
         <v>137028</v>
       </c>
       <c r="E129" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -3824,7 +3824,7 @@
         <v>138683</v>
       </c>
       <c r="E130" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -3841,7 +3841,7 @@
         <v>139679</v>
       </c>
       <c r="E131" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -3858,7 +3858,7 @@
         <v>141498</v>
       </c>
       <c r="E132" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -3875,7 +3875,7 @@
         <v>158548</v>
       </c>
       <c r="E133" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -3892,7 +3892,7 @@
         <v>159948</v>
       </c>
       <c r="E134" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -3909,7 +3909,7 @@
         <v>163423</v>
       </c>
       <c r="E135" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -3926,7 +3926,7 @@
         <v>170354</v>
       </c>
       <c r="E136" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -3943,7 +3943,7 @@
         <v>185777</v>
       </c>
       <c r="E137" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -3960,7 +3960,7 @@
         <v>193674</v>
       </c>
       <c r="E138" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -3977,7 +3977,7 @@
         <v>194816</v>
       </c>
       <c r="E139" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -3994,7 +3994,7 @@
         <v>203833</v>
       </c>
       <c r="E140" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -4011,7 +4011,7 @@
         <v>212024</v>
       </c>
       <c r="E141" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -4028,7 +4028,7 @@
         <v>218433</v>
       </c>
       <c r="E142" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -4045,7 +4045,7 @@
         <v>228570</v>
       </c>
       <c r="E143" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -4062,7 +4062,7 @@
         <v>234609</v>
       </c>
       <c r="E144" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -4079,7 +4079,7 @@
         <v>276572</v>
       </c>
       <c r="E145" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -4096,7 +4096,7 @@
         <v>279440</v>
       </c>
       <c r="E146" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -4113,7 +4113,7 @@
         <v>300894</v>
       </c>
       <c r="E147" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -4130,7 +4130,7 @@
         <v>319071</v>
       </c>
       <c r="E148" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -4147,7 +4147,7 @@
         <v>325145</v>
       </c>
       <c r="E149" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -4164,7 +4164,7 @@
         <v>329891</v>
       </c>
       <c r="E150" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -4181,7 +4181,7 @@
         <v>333815</v>
       </c>
       <c r="E151" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -4198,7 +4198,7 @@
         <v>333869</v>
       </c>
       <c r="E152" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -4215,7 +4215,7 @@
         <v>350696</v>
       </c>
       <c r="E153" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -4232,7 +4232,7 @@
         <v>357705</v>
       </c>
       <c r="E154" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -4249,7 +4249,7 @@
         <v>359253</v>
       </c>
       <c r="E155" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -4266,7 +4266,7 @@
         <v>372209</v>
       </c>
       <c r="E156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -4283,7 +4283,7 @@
         <v>417328</v>
       </c>
       <c r="E157" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -4300,7 +4300,7 @@
         <v>419010</v>
       </c>
       <c r="E158" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -4317,7 +4317,7 @@
         <v>440754</v>
       </c>
       <c r="E159" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -4334,7 +4334,7 @@
         <v>442430</v>
       </c>
       <c r="E160" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -4351,7 +4351,7 @@
         <v>444807</v>
       </c>
       <c r="E161" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -4368,7 +4368,7 @@
         <v>474045</v>
       </c>
       <c r="E162" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -4385,7 +4385,7 @@
         <v>491531</v>
       </c>
       <c r="E163" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -4402,7 +4402,7 @@
         <v>493309</v>
       </c>
       <c r="E164" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -4419,7 +4419,7 @@
         <v>496565</v>
       </c>
       <c r="E165" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -4436,7 +4436,7 @@
         <v>516077</v>
       </c>
       <c r="E166" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -4453,7 +4453,7 @@
         <v>520501</v>
       </c>
       <c r="E167" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -4470,7 +4470,7 @@
         <v>555656</v>
       </c>
       <c r="E168" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -4487,7 +4487,7 @@
         <v>575879</v>
       </c>
       <c r="E169" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -4504,7 +4504,7 @@
         <v>586511</v>
       </c>
       <c r="E170" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -4521,7 +4521,7 @@
         <v>611335</v>
       </c>
       <c r="E171" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -4538,7 +4538,7 @@
         <v>652933</v>
       </c>
       <c r="E172" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -4555,7 +4555,7 @@
         <v>654486</v>
       </c>
       <c r="E173" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -4572,7 +4572,7 @@
         <v>663681</v>
       </c>
       <c r="E174" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -4589,7 +4589,7 @@
         <v>664796</v>
       </c>
       <c r="E175" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -4606,7 +4606,7 @@
         <v>714318</v>
       </c>
       <c r="E176" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -4623,7 +4623,7 @@
         <v>758150</v>
       </c>
       <c r="E177" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -4640,7 +4640,7 @@
         <v>811476</v>
       </c>
       <c r="E178" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -4657,7 +4657,7 @@
         <v>878171</v>
       </c>
       <c r="E179" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -4674,7 +4674,7 @@
         <v>879665</v>
       </c>
       <c r="E180" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -4691,7 +4691,7 @@
         <v>881795</v>
       </c>
       <c r="E181" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -4708,7 +4708,7 @@
         <v>894300</v>
       </c>
       <c r="E182" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -4725,7 +4725,7 @@
         <v>896414</v>
       </c>
       <c r="E183" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">

--- a/FinalDashboard/all2019ForDashboard.xlsx
+++ b/FinalDashboard/all2019ForDashboard.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="414">
   <si>
     <t>Country</t>
   </si>
@@ -1243,13 +1243,22 @@
     <t>cluster</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>mid</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>&lt;0</t>
+  </si>
+  <si>
+    <t>&lt;0</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>0 - 1,000,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>&gt;1,000,000</t>
+  </si>
+  <si>
+    <t>&gt;1,000,000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1300,11 +1309,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1611,8 +1621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A171" workbookViewId="0">
-      <selection activeCell="E186" sqref="E186"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E184" sqref="E184:E203"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1648,7 +1658,7 @@
         <v>-362896</v>
       </c>
       <c r="E2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.15">
@@ -1665,7 +1675,7 @@
         <v>-256211</v>
       </c>
       <c r="E3" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.15">
@@ -2055,8 +2065,8 @@
       <c r="D26">
         <v>130</v>
       </c>
-      <c r="E26" t="s">
-        <v>410</v>
+      <c r="E26" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.15">
@@ -2072,8 +2082,8 @@
       <c r="D27">
         <v>140</v>
       </c>
-      <c r="E27" t="s">
-        <v>410</v>
+      <c r="E27" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.15">
@@ -2089,8 +2099,8 @@
       <c r="D28">
         <v>212</v>
       </c>
-      <c r="E28" t="s">
-        <v>410</v>
+      <c r="E28" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.15">
@@ -2106,8 +2116,8 @@
       <c r="D29">
         <v>366</v>
       </c>
-      <c r="E29" t="s">
-        <v>410</v>
+      <c r="E29" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.15">
@@ -2123,8 +2133,8 @@
       <c r="D30">
         <v>369</v>
       </c>
-      <c r="E30" t="s">
-        <v>410</v>
+      <c r="E30" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.15">
@@ -2140,8 +2150,8 @@
       <c r="D31">
         <v>460</v>
       </c>
-      <c r="E31" t="s">
-        <v>410</v>
+      <c r="E31" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.15">
@@ -2157,8 +2167,8 @@
       <c r="D32">
         <v>535</v>
       </c>
-      <c r="E32" t="s">
-        <v>410</v>
+      <c r="E32" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.15">
@@ -2174,8 +2184,8 @@
       <c r="D33">
         <v>548</v>
       </c>
-      <c r="E33" t="s">
-        <v>410</v>
+      <c r="E33" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.15">
@@ -2191,8 +2201,8 @@
       <c r="D34">
         <v>623</v>
       </c>
-      <c r="E34" t="s">
-        <v>410</v>
+      <c r="E34" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.15">
@@ -2208,8 +2218,8 @@
       <c r="D35">
         <v>673</v>
       </c>
-      <c r="E35" t="s">
-        <v>410</v>
+      <c r="E35" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.15">
@@ -2225,8 +2235,8 @@
       <c r="D36">
         <v>823</v>
       </c>
-      <c r="E36" t="s">
-        <v>410</v>
+      <c r="E36" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.15">
@@ -2242,8 +2252,8 @@
       <c r="D37">
         <v>870</v>
       </c>
-      <c r="E37" t="s">
-        <v>410</v>
+      <c r="E37" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.15">
@@ -2259,8 +2269,8 @@
       <c r="D38">
         <v>1140</v>
       </c>
-      <c r="E38" t="s">
-        <v>410</v>
+      <c r="E38" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.15">
@@ -2276,8 +2286,8 @@
       <c r="D39">
         <v>1142</v>
       </c>
-      <c r="E39" t="s">
-        <v>410</v>
+      <c r="E39" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.15">
@@ -2293,8 +2303,8 @@
       <c r="D40">
         <v>1190</v>
       </c>
-      <c r="E40" t="s">
-        <v>410</v>
+      <c r="E40" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.15">
@@ -2310,8 +2320,8 @@
       <c r="D41">
         <v>1249</v>
       </c>
-      <c r="E41" t="s">
-        <v>410</v>
+      <c r="E41" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.15">
@@ -2327,8 +2337,8 @@
       <c r="D42">
         <v>1507</v>
       </c>
-      <c r="E42" t="s">
-        <v>410</v>
+      <c r="E42" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.15">
@@ -2344,8 +2354,8 @@
       <c r="D43">
         <v>1615</v>
       </c>
-      <c r="E43" t="s">
-        <v>410</v>
+      <c r="E43" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.15">
@@ -2361,8 +2371,8 @@
       <c r="D44">
         <v>1682</v>
       </c>
-      <c r="E44" t="s">
-        <v>410</v>
+      <c r="E44" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.15">
@@ -2378,8 +2388,8 @@
       <c r="D45">
         <v>1802</v>
       </c>
-      <c r="E45" t="s">
-        <v>410</v>
+      <c r="E45" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.15">
@@ -2395,8 +2405,8 @@
       <c r="D46">
         <v>1814</v>
       </c>
-      <c r="E46" t="s">
-        <v>410</v>
+      <c r="E46" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.15">
@@ -2412,8 +2422,8 @@
       <c r="D47">
         <v>2269</v>
       </c>
-      <c r="E47" t="s">
-        <v>410</v>
+      <c r="E47" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.15">
@@ -2429,8 +2439,8 @@
       <c r="D48">
         <v>2292</v>
       </c>
-      <c r="E48" t="s">
-        <v>410</v>
+      <c r="E48" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.15">
@@ -2446,8 +2456,8 @@
       <c r="D49">
         <v>2753</v>
       </c>
-      <c r="E49" t="s">
-        <v>410</v>
+      <c r="E49" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.15">
@@ -2463,8 +2473,8 @@
       <c r="D50">
         <v>3313</v>
       </c>
-      <c r="E50" t="s">
-        <v>410</v>
+      <c r="E50" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.15">
@@ -2480,8 +2490,8 @@
       <c r="D51">
         <v>3776</v>
       </c>
-      <c r="E51" t="s">
-        <v>410</v>
+      <c r="E51" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.15">
@@ -2497,8 +2507,8 @@
       <c r="D52">
         <v>3807</v>
       </c>
-      <c r="E52" t="s">
-        <v>410</v>
+      <c r="E52" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.15">
@@ -2514,8 +2524,8 @@
       <c r="D53">
         <v>4064</v>
       </c>
-      <c r="E53" t="s">
-        <v>410</v>
+      <c r="E53" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.15">
@@ -2531,8 +2541,8 @@
       <c r="D54">
         <v>4262</v>
       </c>
-      <c r="E54" t="s">
-        <v>410</v>
+      <c r="E54" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.15">
@@ -2548,8 +2558,8 @@
       <c r="D55">
         <v>4826</v>
       </c>
-      <c r="E55" t="s">
-        <v>410</v>
+      <c r="E55" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.15">
@@ -2565,8 +2575,8 @@
       <c r="D56">
         <v>5324</v>
       </c>
-      <c r="E56" t="s">
-        <v>410</v>
+      <c r="E56" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.15">
@@ -2582,8 +2592,8 @@
       <c r="D57">
         <v>5747</v>
       </c>
-      <c r="E57" t="s">
-        <v>410</v>
+      <c r="E57" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.15">
@@ -2599,8 +2609,8 @@
       <c r="D58">
         <v>6112</v>
       </c>
-      <c r="E58" t="s">
-        <v>410</v>
+      <c r="E58" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.15">
@@ -2616,8 +2626,8 @@
       <c r="D59">
         <v>6389</v>
       </c>
-      <c r="E59" t="s">
-        <v>410</v>
+      <c r="E59" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.15">
@@ -2633,8 +2643,8 @@
       <c r="D60">
         <v>6477</v>
       </c>
-      <c r="E60" t="s">
-        <v>410</v>
+      <c r="E60" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.15">
@@ -2650,8 +2660,8 @@
       <c r="D61">
         <v>6644</v>
       </c>
-      <c r="E61" t="s">
-        <v>410</v>
+      <c r="E61" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.15">
@@ -2667,8 +2677,8 @@
       <c r="D62">
         <v>7238</v>
       </c>
-      <c r="E62" t="s">
-        <v>410</v>
+      <c r="E62" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.15">
@@ -2684,8 +2694,8 @@
       <c r="D63">
         <v>7275</v>
       </c>
-      <c r="E63" t="s">
-        <v>410</v>
+      <c r="E63" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.15">
@@ -2701,8 +2711,8 @@
       <c r="D64">
         <v>7874</v>
       </c>
-      <c r="E64" t="s">
-        <v>410</v>
+      <c r="E64" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.15">
@@ -2718,8 +2728,8 @@
       <c r="D65">
         <v>8609</v>
       </c>
-      <c r="E65" t="s">
-        <v>410</v>
+      <c r="E65" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.15">
@@ -2735,8 +2745,8 @@
       <c r="D66">
         <v>8854</v>
       </c>
-      <c r="E66" t="s">
-        <v>410</v>
+      <c r="E66" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.15">
@@ -2752,8 +2762,8 @@
       <c r="D67">
         <v>9051</v>
       </c>
-      <c r="E67" t="s">
-        <v>410</v>
+      <c r="E67" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.15">
@@ -2769,8 +2779,8 @@
       <c r="D68">
         <v>9067</v>
       </c>
-      <c r="E68" t="s">
-        <v>410</v>
+      <c r="E68" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.15">
@@ -2786,8 +2796,8 @@
       <c r="D69">
         <v>10872</v>
       </c>
-      <c r="E69" t="s">
-        <v>410</v>
+      <c r="E69" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.15">
@@ -2803,8 +2813,8 @@
       <c r="D70">
         <v>11945</v>
       </c>
-      <c r="E70" t="s">
-        <v>410</v>
+      <c r="E70" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.15">
@@ -2820,8 +2830,8 @@
       <c r="D71">
         <v>12219</v>
       </c>
-      <c r="E71" t="s">
-        <v>410</v>
+      <c r="E71" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.15">
@@ -2837,8 +2847,8 @@
       <c r="D72">
         <v>12453</v>
       </c>
-      <c r="E72" t="s">
-        <v>410</v>
+      <c r="E72" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.15">
@@ -2854,8 +2864,8 @@
       <c r="D73">
         <v>13155</v>
       </c>
-      <c r="E73" t="s">
-        <v>410</v>
+      <c r="E73" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.15">
@@ -2871,8 +2881,8 @@
       <c r="D74">
         <v>14541</v>
       </c>
-      <c r="E74" t="s">
-        <v>410</v>
+      <c r="E74" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.15">
@@ -2888,8 +2898,8 @@
       <c r="D75">
         <v>14969</v>
       </c>
-      <c r="E75" t="s">
-        <v>410</v>
+      <c r="E75" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.15">
@@ -2905,8 +2915,8 @@
       <c r="D76">
         <v>16963</v>
       </c>
-      <c r="E76" t="s">
-        <v>410</v>
+      <c r="E76" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.15">
@@ -2922,8 +2932,8 @@
       <c r="D77">
         <v>17012</v>
       </c>
-      <c r="E77" t="s">
-        <v>410</v>
+      <c r="E77" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.15">
@@ -2939,8 +2949,8 @@
       <c r="D78">
         <v>18637</v>
       </c>
-      <c r="E78" t="s">
-        <v>410</v>
+      <c r="E78" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.15">
@@ -2956,8 +2966,8 @@
       <c r="D79">
         <v>20036</v>
       </c>
-      <c r="E79" t="s">
-        <v>410</v>
+      <c r="E79" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.15">
@@ -2973,8 +2983,8 @@
       <c r="D80">
         <v>21653</v>
       </c>
-      <c r="E80" t="s">
-        <v>410</v>
+      <c r="E80" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.15">
@@ -2990,8 +3000,8 @@
       <c r="D81">
         <v>25234</v>
       </c>
-      <c r="E81" t="s">
-        <v>410</v>
+      <c r="E81" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.15">
@@ -3007,8 +3017,8 @@
       <c r="D82">
         <v>30964</v>
       </c>
-      <c r="E82" t="s">
-        <v>410</v>
+      <c r="E82" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.15">
@@ -3024,8 +3034,8 @@
       <c r="D83">
         <v>32731</v>
       </c>
-      <c r="E83" t="s">
-        <v>410</v>
+      <c r="E83" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.15">
@@ -3041,8 +3051,8 @@
       <c r="D84">
         <v>37656</v>
       </c>
-      <c r="E84" t="s">
-        <v>410</v>
+      <c r="E84" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.15">
@@ -3058,8 +3068,8 @@
       <c r="D85">
         <v>39553</v>
       </c>
-      <c r="E85" t="s">
-        <v>410</v>
+      <c r="E85" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.15">
@@ -3075,8 +3085,8 @@
       <c r="D86">
         <v>41638</v>
       </c>
-      <c r="E86" t="s">
-        <v>410</v>
+      <c r="E86" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.15">
@@ -3092,8 +3102,8 @@
       <c r="D87">
         <v>45160</v>
       </c>
-      <c r="E87" t="s">
-        <v>410</v>
+      <c r="E87" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.15">
@@ -3109,8 +3119,8 @@
       <c r="D88">
         <v>46309</v>
       </c>
-      <c r="E88" t="s">
-        <v>410</v>
+      <c r="E88" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.15">
@@ -3126,8 +3136,8 @@
       <c r="D89">
         <v>46422</v>
       </c>
-      <c r="E89" t="s">
-        <v>410</v>
+      <c r="E89" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.15">
@@ -3143,8 +3153,8 @@
       <c r="D90">
         <v>46799</v>
       </c>
-      <c r="E90" t="s">
-        <v>410</v>
+      <c r="E90" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.15">
@@ -3160,8 +3170,8 @@
       <c r="D91">
         <v>46848</v>
       </c>
-      <c r="E91" t="s">
-        <v>410</v>
+      <c r="E91" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.15">
@@ -3177,8 +3187,8 @@
       <c r="D92">
         <v>47017</v>
       </c>
-      <c r="E92" t="s">
-        <v>410</v>
+      <c r="E92" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.15">
@@ -3194,8 +3204,8 @@
       <c r="D93">
         <v>47340</v>
       </c>
-      <c r="E93" t="s">
-        <v>410</v>
+      <c r="E93" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.15">
@@ -3211,8 +3221,8 @@
       <c r="D94">
         <v>48744</v>
       </c>
-      <c r="E94" t="s">
-        <v>410</v>
+      <c r="E94" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.15">
@@ -3228,8 +3238,8 @@
       <c r="D95">
         <v>48791</v>
       </c>
-      <c r="E95" t="s">
-        <v>410</v>
+      <c r="E95" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.15">
@@ -3245,8 +3255,8 @@
       <c r="D96">
         <v>49697</v>
       </c>
-      <c r="E96" t="s">
-        <v>410</v>
+      <c r="E96" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="97" spans="1:5" x14ac:dyDescent="0.15">
@@ -3262,8 +3272,8 @@
       <c r="D97">
         <v>53231</v>
       </c>
-      <c r="E97" t="s">
-        <v>410</v>
+      <c r="E97" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.15">
@@ -3279,8 +3289,8 @@
       <c r="D98">
         <v>53726</v>
       </c>
-      <c r="E98" t="s">
-        <v>410</v>
+      <c r="E98" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.15">
@@ -3296,8 +3306,8 @@
       <c r="D99">
         <v>54049</v>
       </c>
-      <c r="E99" t="s">
-        <v>410</v>
+      <c r="E99" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="100" spans="1:5" x14ac:dyDescent="0.15">
@@ -3313,8 +3323,8 @@
       <c r="D100">
         <v>57529</v>
       </c>
-      <c r="E100" t="s">
-        <v>410</v>
+      <c r="E100" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="101" spans="1:5" x14ac:dyDescent="0.15">
@@ -3330,8 +3340,8 @@
       <c r="D101">
         <v>59578</v>
       </c>
-      <c r="E101" t="s">
-        <v>410</v>
+      <c r="E101" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="102" spans="1:5" x14ac:dyDescent="0.15">
@@ -3347,8 +3357,8 @@
       <c r="D102">
         <v>62638</v>
       </c>
-      <c r="E102" t="s">
-        <v>410</v>
+      <c r="E102" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="103" spans="1:5" x14ac:dyDescent="0.15">
@@ -3364,8 +3374,8 @@
       <c r="D103">
         <v>63823</v>
       </c>
-      <c r="E103" t="s">
-        <v>410</v>
+      <c r="E103" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="104" spans="1:5" x14ac:dyDescent="0.15">
@@ -3381,8 +3391,8 @@
       <c r="D104">
         <v>64507</v>
       </c>
-      <c r="E104" t="s">
-        <v>410</v>
+      <c r="E104" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.15">
@@ -3398,8 +3408,8 @@
       <c r="D105">
         <v>66199</v>
       </c>
-      <c r="E105" t="s">
-        <v>410</v>
+      <c r="E105" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="106" spans="1:5" x14ac:dyDescent="0.15">
@@ -3415,8 +3425,8 @@
       <c r="D106">
         <v>66651</v>
       </c>
-      <c r="E106" t="s">
-        <v>410</v>
+      <c r="E106" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="107" spans="1:5" x14ac:dyDescent="0.15">
@@ -3432,8 +3442,8 @@
       <c r="D107">
         <v>68283</v>
       </c>
-      <c r="E107" t="s">
-        <v>410</v>
+      <c r="E107" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.15">
@@ -3449,8 +3459,8 @@
       <c r="D108">
         <v>68957</v>
       </c>
-      <c r="E108" t="s">
-        <v>410</v>
+      <c r="E108" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="109" spans="1:5" x14ac:dyDescent="0.15">
@@ -3466,8 +3476,8 @@
       <c r="D109">
         <v>79530</v>
       </c>
-      <c r="E109" t="s">
-        <v>410</v>
+      <c r="E109" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="110" spans="1:5" x14ac:dyDescent="0.15">
@@ -3483,8 +3493,8 @@
       <c r="D110">
         <v>81673</v>
       </c>
-      <c r="E110" t="s">
-        <v>410</v>
+      <c r="E110" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.15">
@@ -3500,8 +3510,8 @@
       <c r="D111">
         <v>88234</v>
       </c>
-      <c r="E111" t="s">
-        <v>410</v>
+      <c r="E111" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.15">
@@ -3517,8 +3527,8 @@
       <c r="D112">
         <v>90153</v>
       </c>
-      <c r="E112" t="s">
-        <v>410</v>
+      <c r="E112" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="113" spans="1:5" x14ac:dyDescent="0.15">
@@ -3534,8 +3544,8 @@
       <c r="D113">
         <v>92251</v>
       </c>
-      <c r="E113" t="s">
-        <v>410</v>
+      <c r="E113" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.15">
@@ -3551,8 +3561,8 @@
       <c r="D114">
         <v>94836</v>
       </c>
-      <c r="E114" t="s">
-        <v>410</v>
+      <c r="E114" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="115" spans="1:5" x14ac:dyDescent="0.15">
@@ -3568,8 +3578,8 @@
       <c r="D115">
         <v>96381</v>
       </c>
-      <c r="E115" t="s">
-        <v>410</v>
+      <c r="E115" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="116" spans="1:5" x14ac:dyDescent="0.15">
@@ -3585,8 +3595,8 @@
       <c r="D116">
         <v>100226</v>
       </c>
-      <c r="E116" t="s">
-        <v>410</v>
+      <c r="E116" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="117" spans="1:5" x14ac:dyDescent="0.15">
@@ -3602,8 +3612,8 @@
       <c r="D117">
         <v>107039</v>
       </c>
-      <c r="E117" t="s">
-        <v>410</v>
+      <c r="E117" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="118" spans="1:5" x14ac:dyDescent="0.15">
@@ -3619,8 +3629,8 @@
       <c r="D118">
         <v>108792</v>
       </c>
-      <c r="E118" t="s">
-        <v>410</v>
+      <c r="E118" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.15">
@@ -3636,8 +3646,8 @@
       <c r="D119">
         <v>110102</v>
       </c>
-      <c r="E119" t="s">
-        <v>410</v>
+      <c r="E119" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="120" spans="1:5" x14ac:dyDescent="0.15">
@@ -3653,8 +3663,8 @@
       <c r="D120">
         <v>110387</v>
       </c>
-      <c r="E120" t="s">
-        <v>410</v>
+      <c r="E120" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.15">
@@ -3670,8 +3680,8 @@
       <c r="D121">
         <v>114609</v>
       </c>
-      <c r="E121" t="s">
-        <v>410</v>
+      <c r="E121" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="122" spans="1:5" x14ac:dyDescent="0.15">
@@ -3687,8 +3697,8 @@
       <c r="D122">
         <v>119014</v>
       </c>
-      <c r="E122" t="s">
-        <v>410</v>
+      <c r="E122" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.15">
@@ -3704,8 +3714,8 @@
       <c r="D123">
         <v>119218</v>
       </c>
-      <c r="E123" t="s">
-        <v>410</v>
+      <c r="E123" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.15">
@@ -3721,8 +3731,8 @@
       <c r="D124">
         <v>119348</v>
       </c>
-      <c r="E124" t="s">
-        <v>410</v>
+      <c r="E124" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.15">
@@ -3738,8 +3748,8 @@
       <c r="D125">
         <v>123175</v>
       </c>
-      <c r="E125" t="s">
-        <v>410</v>
+      <c r="E125" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.15">
@@ -3755,8 +3765,8 @@
       <c r="D126">
         <v>126725</v>
       </c>
-      <c r="E126" t="s">
-        <v>410</v>
+      <c r="E126" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.15">
@@ -3772,8 +3782,8 @@
       <c r="D127">
         <v>129785</v>
       </c>
-      <c r="E127" t="s">
-        <v>410</v>
+      <c r="E127" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.15">
@@ -3789,8 +3799,8 @@
       <c r="D128">
         <v>136866</v>
       </c>
-      <c r="E128" t="s">
-        <v>410</v>
+      <c r="E128" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.15">
@@ -3806,8 +3816,8 @@
       <c r="D129">
         <v>137028</v>
       </c>
-      <c r="E129" t="s">
-        <v>410</v>
+      <c r="E129" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.15">
@@ -3823,8 +3833,8 @@
       <c r="D130">
         <v>138683</v>
       </c>
-      <c r="E130" t="s">
-        <v>410</v>
+      <c r="E130" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.15">
@@ -3840,8 +3850,8 @@
       <c r="D131">
         <v>139679</v>
       </c>
-      <c r="E131" t="s">
-        <v>410</v>
+      <c r="E131" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.15">
@@ -3857,8 +3867,8 @@
       <c r="D132">
         <v>141498</v>
       </c>
-      <c r="E132" t="s">
-        <v>410</v>
+      <c r="E132" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.15">
@@ -3874,8 +3884,8 @@
       <c r="D133">
         <v>158548</v>
       </c>
-      <c r="E133" t="s">
-        <v>410</v>
+      <c r="E133" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.15">
@@ -3891,8 +3901,8 @@
       <c r="D134">
         <v>159948</v>
       </c>
-      <c r="E134" t="s">
-        <v>410</v>
+      <c r="E134" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.15">
@@ -3908,8 +3918,8 @@
       <c r="D135">
         <v>163423</v>
       </c>
-      <c r="E135" t="s">
-        <v>410</v>
+      <c r="E135" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.15">
@@ -3925,8 +3935,8 @@
       <c r="D136">
         <v>170354</v>
       </c>
-      <c r="E136" t="s">
-        <v>410</v>
+      <c r="E136" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.15">
@@ -3942,8 +3952,8 @@
       <c r="D137">
         <v>185777</v>
       </c>
-      <c r="E137" t="s">
-        <v>410</v>
+      <c r="E137" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.15">
@@ -3959,8 +3969,8 @@
       <c r="D138">
         <v>193674</v>
       </c>
-      <c r="E138" t="s">
-        <v>410</v>
+      <c r="E138" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="139" spans="1:5" x14ac:dyDescent="0.15">
@@ -3976,8 +3986,8 @@
       <c r="D139">
         <v>194816</v>
       </c>
-      <c r="E139" t="s">
-        <v>410</v>
+      <c r="E139" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="140" spans="1:5" x14ac:dyDescent="0.15">
@@ -3993,8 +4003,8 @@
       <c r="D140">
         <v>203833</v>
       </c>
-      <c r="E140" t="s">
-        <v>410</v>
+      <c r="E140" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="141" spans="1:5" x14ac:dyDescent="0.15">
@@ -4010,8 +4020,8 @@
       <c r="D141">
         <v>212024</v>
       </c>
-      <c r="E141" t="s">
-        <v>410</v>
+      <c r="E141" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.15">
@@ -4027,8 +4037,8 @@
       <c r="D142">
         <v>218433</v>
       </c>
-      <c r="E142" t="s">
-        <v>410</v>
+      <c r="E142" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.15">
@@ -4044,8 +4054,8 @@
       <c r="D143">
         <v>228570</v>
       </c>
-      <c r="E143" t="s">
-        <v>410</v>
+      <c r="E143" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.15">
@@ -4061,8 +4071,8 @@
       <c r="D144">
         <v>234609</v>
       </c>
-      <c r="E144" t="s">
-        <v>410</v>
+      <c r="E144" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.15">
@@ -4078,8 +4088,8 @@
       <c r="D145">
         <v>276572</v>
       </c>
-      <c r="E145" t="s">
-        <v>410</v>
+      <c r="E145" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.15">
@@ -4095,8 +4105,8 @@
       <c r="D146">
         <v>279440</v>
       </c>
-      <c r="E146" t="s">
-        <v>410</v>
+      <c r="E146" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.15">
@@ -4112,8 +4122,8 @@
       <c r="D147">
         <v>300894</v>
       </c>
-      <c r="E147" t="s">
-        <v>410</v>
+      <c r="E147" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.15">
@@ -4129,8 +4139,8 @@
       <c r="D148">
         <v>319071</v>
       </c>
-      <c r="E148" t="s">
-        <v>410</v>
+      <c r="E148" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.15">
@@ -4146,8 +4156,8 @@
       <c r="D149">
         <v>325145</v>
       </c>
-      <c r="E149" t="s">
-        <v>410</v>
+      <c r="E149" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.15">
@@ -4163,8 +4173,8 @@
       <c r="D150">
         <v>329891</v>
       </c>
-      <c r="E150" t="s">
-        <v>410</v>
+      <c r="E150" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.15">
@@ -4180,8 +4190,8 @@
       <c r="D151">
         <v>333815</v>
       </c>
-      <c r="E151" t="s">
-        <v>410</v>
+      <c r="E151" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.15">
@@ -4197,8 +4207,8 @@
       <c r="D152">
         <v>333869</v>
       </c>
-      <c r="E152" t="s">
-        <v>410</v>
+      <c r="E152" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.15">
@@ -4214,8 +4224,8 @@
       <c r="D153">
         <v>350696</v>
       </c>
-      <c r="E153" t="s">
-        <v>410</v>
+      <c r="E153" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.15">
@@ -4231,8 +4241,8 @@
       <c r="D154">
         <v>357705</v>
       </c>
-      <c r="E154" t="s">
-        <v>410</v>
+      <c r="E154" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.15">
@@ -4248,8 +4258,8 @@
       <c r="D155">
         <v>359253</v>
       </c>
-      <c r="E155" t="s">
-        <v>410</v>
+      <c r="E155" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.15">
@@ -4265,8 +4275,8 @@
       <c r="D156">
         <v>372209</v>
       </c>
-      <c r="E156" t="s">
-        <v>410</v>
+      <c r="E156" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.15">
@@ -4282,8 +4292,8 @@
       <c r="D157">
         <v>417328</v>
       </c>
-      <c r="E157" t="s">
-        <v>410</v>
+      <c r="E157" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.15">
@@ -4299,8 +4309,8 @@
       <c r="D158">
         <v>419010</v>
       </c>
-      <c r="E158" t="s">
-        <v>410</v>
+      <c r="E158" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.15">
@@ -4316,8 +4326,8 @@
       <c r="D159">
         <v>440754</v>
       </c>
-      <c r="E159" t="s">
-        <v>410</v>
+      <c r="E159" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.15">
@@ -4333,8 +4343,8 @@
       <c r="D160">
         <v>442430</v>
       </c>
-      <c r="E160" t="s">
-        <v>410</v>
+      <c r="E160" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="161" spans="1:5" x14ac:dyDescent="0.15">
@@ -4350,8 +4360,8 @@
       <c r="D161">
         <v>444807</v>
       </c>
-      <c r="E161" t="s">
-        <v>410</v>
+      <c r="E161" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="162" spans="1:5" x14ac:dyDescent="0.15">
@@ -4367,8 +4377,8 @@
       <c r="D162">
         <v>474045</v>
       </c>
-      <c r="E162" t="s">
-        <v>410</v>
+      <c r="E162" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.15">
@@ -4384,8 +4394,8 @@
       <c r="D163">
         <v>491531</v>
       </c>
-      <c r="E163" t="s">
-        <v>410</v>
+      <c r="E163" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.15">
@@ -4401,8 +4411,8 @@
       <c r="D164">
         <v>493309</v>
       </c>
-      <c r="E164" t="s">
-        <v>410</v>
+      <c r="E164" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.15">
@@ -4418,8 +4428,8 @@
       <c r="D165">
         <v>496565</v>
       </c>
-      <c r="E165" t="s">
-        <v>410</v>
+      <c r="E165" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.15">
@@ -4435,8 +4445,8 @@
       <c r="D166">
         <v>516077</v>
       </c>
-      <c r="E166" t="s">
-        <v>410</v>
+      <c r="E166" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.15">
@@ -4452,8 +4462,8 @@
       <c r="D167">
         <v>520501</v>
       </c>
-      <c r="E167" t="s">
-        <v>410</v>
+      <c r="E167" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.15">
@@ -4469,8 +4479,8 @@
       <c r="D168">
         <v>555656</v>
       </c>
-      <c r="E168" t="s">
-        <v>410</v>
+      <c r="E168" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.15">
@@ -4486,8 +4496,8 @@
       <c r="D169">
         <v>575879</v>
       </c>
-      <c r="E169" t="s">
-        <v>410</v>
+      <c r="E169" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.15">
@@ -4503,8 +4513,8 @@
       <c r="D170">
         <v>586511</v>
       </c>
-      <c r="E170" t="s">
-        <v>410</v>
+      <c r="E170" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.15">
@@ -4520,8 +4530,8 @@
       <c r="D171">
         <v>611335</v>
       </c>
-      <c r="E171" t="s">
-        <v>410</v>
+      <c r="E171" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.15">
@@ -4537,8 +4547,8 @@
       <c r="D172">
         <v>652933</v>
       </c>
-      <c r="E172" t="s">
-        <v>410</v>
+      <c r="E172" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.15">
@@ -4554,8 +4564,8 @@
       <c r="D173">
         <v>654486</v>
       </c>
-      <c r="E173" t="s">
-        <v>410</v>
+      <c r="E173" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="174" spans="1:5" x14ac:dyDescent="0.15">
@@ -4571,8 +4581,8 @@
       <c r="D174">
         <v>663681</v>
       </c>
-      <c r="E174" t="s">
-        <v>410</v>
+      <c r="E174" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="175" spans="1:5" x14ac:dyDescent="0.15">
@@ -4588,8 +4598,8 @@
       <c r="D175">
         <v>664796</v>
       </c>
-      <c r="E175" t="s">
-        <v>410</v>
+      <c r="E175" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="176" spans="1:5" x14ac:dyDescent="0.15">
@@ -4605,8 +4615,8 @@
       <c r="D176">
         <v>714318</v>
       </c>
-      <c r="E176" t="s">
-        <v>410</v>
+      <c r="E176" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="177" spans="1:5" x14ac:dyDescent="0.15">
@@ -4622,8 +4632,8 @@
       <c r="D177">
         <v>758150</v>
       </c>
-      <c r="E177" t="s">
-        <v>410</v>
+      <c r="E177" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:5" x14ac:dyDescent="0.15">
@@ -4639,8 +4649,8 @@
       <c r="D178">
         <v>811476</v>
       </c>
-      <c r="E178" t="s">
-        <v>410</v>
+      <c r="E178" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="179" spans="1:5" x14ac:dyDescent="0.15">
@@ -4656,8 +4666,8 @@
       <c r="D179">
         <v>878171</v>
       </c>
-      <c r="E179" t="s">
-        <v>410</v>
+      <c r="E179" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="180" spans="1:5" x14ac:dyDescent="0.15">
@@ -4673,8 +4683,8 @@
       <c r="D180">
         <v>879665</v>
       </c>
-      <c r="E180" t="s">
-        <v>410</v>
+      <c r="E180" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="181" spans="1:5" x14ac:dyDescent="0.15">
@@ -4690,8 +4700,8 @@
       <c r="D181">
         <v>881795</v>
       </c>
-      <c r="E181" t="s">
-        <v>410</v>
+      <c r="E181" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="182" spans="1:5" x14ac:dyDescent="0.15">
@@ -4707,8 +4717,8 @@
       <c r="D182">
         <v>894300</v>
       </c>
-      <c r="E182" t="s">
-        <v>410</v>
+      <c r="E182" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="183" spans="1:5" x14ac:dyDescent="0.15">
@@ -4724,8 +4734,8 @@
       <c r="D183">
         <v>896414</v>
       </c>
-      <c r="E183" t="s">
-        <v>410</v>
+      <c r="E183" s="2" t="s">
+        <v>411</v>
       </c>
     </row>
     <row r="184" spans="1:5" x14ac:dyDescent="0.15">
@@ -4742,7 +4752,7 @@
         <v>1000046</v>
       </c>
       <c r="E184" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="185" spans="1:5" x14ac:dyDescent="0.15">
@@ -4759,7 +4769,7 @@
         <v>1023796</v>
       </c>
       <c r="E185" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="186" spans="1:5" x14ac:dyDescent="0.15">
@@ -4776,7 +4786,7 @@
         <v>1028169</v>
       </c>
       <c r="E186" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="187" spans="1:5" x14ac:dyDescent="0.15">
@@ -4793,7 +4803,7 @@
         <v>1096513</v>
       </c>
       <c r="E187" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="188" spans="1:5" x14ac:dyDescent="0.15">
@@ -4810,7 +4820,7 @@
         <v>1189351</v>
       </c>
       <c r="E188" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="189" spans="1:5" x14ac:dyDescent="0.15">
@@ -4827,7 +4837,7 @@
         <v>1371079</v>
       </c>
       <c r="E189" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="190" spans="1:5" x14ac:dyDescent="0.15">
@@ -4844,7 +4854,7 @@
         <v>1464882</v>
       </c>
       <c r="E190" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="191" spans="1:5" x14ac:dyDescent="0.15">
@@ -4861,7 +4871,7 @@
         <v>1506791</v>
       </c>
       <c r="E191" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="192" spans="1:5" x14ac:dyDescent="0.15">
@@ -4878,7 +4888,7 @@
         <v>1545184</v>
       </c>
       <c r="E192" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.15">
@@ -4895,7 +4905,7 @@
         <v>1656423</v>
       </c>
       <c r="E193" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.15">
@@ -4912,7 +4922,7 @@
         <v>1710300</v>
       </c>
       <c r="E194" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.15">
@@ -4929,7 +4939,7 @@
         <v>1953246</v>
       </c>
       <c r="E195" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.15">
@@ -4946,7 +4956,7 @@
         <v>1955582</v>
       </c>
       <c r="E196" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.15">
@@ -4963,7 +4973,7 @@
         <v>2746617</v>
       </c>
       <c r="E197" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.15">
@@ -4980,7 +4990,7 @@
         <v>2869626</v>
       </c>
       <c r="E198" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.15">
@@ -4997,7 +5007,7 @@
         <v>2926733</v>
       </c>
       <c r="E199" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.15">
@@ -5014,7 +5024,7 @@
         <v>4332288</v>
       </c>
       <c r="E200" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.15">
@@ -5031,7 +5041,7 @@
         <v>5132314</v>
       </c>
       <c r="E201" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.15">
@@ -5048,7 +5058,7 @@
         <v>5838611</v>
       </c>
       <c r="E202" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.15">
@@ -5065,7 +5075,7 @@
         <v>13681695</v>
       </c>
       <c r="E203" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
     </row>
   </sheetData>
